--- a/Data/MonsterData.xlsx
+++ b/Data/MonsterData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,23 @@
   </si>
   <si>
     <t>Character/Monster/BanditBlood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern_01</t>
+  </si>
+  <si>
+    <t>pattern_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern_02</t>
+  </si>
+  <si>
+    <t>pattern_03</t>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -126,13 +143,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -143,6 +171,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -446,18 +480,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -473,8 +508,20 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -490,8 +537,20 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -507,8 +566,20 @@
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="1">
+        <v>20201010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20201010</v>
+      </c>
+      <c r="H3" s="1">
+        <v>20201010</v>
+      </c>
+      <c r="I3" s="1">
+        <v>20201010</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -523,6 +594,18 @@
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>20204010</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20204010</v>
+      </c>
+      <c r="H4" s="1">
+        <v>20204010</v>
+      </c>
+      <c r="I4" s="1">
+        <v>20204010</v>
       </c>
     </row>
   </sheetData>

--- a/Data/MonsterData.xlsx
+++ b/Data/MonsterData.xlsx
@@ -83,6 +83,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,7 +163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -177,6 +180,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,13 +489,14 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.25" customWidth="1"/>
+    <col min="7" max="9" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -566,17 +573,17 @@
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1">
-        <v>20201010</v>
-      </c>
-      <c r="G3" s="1">
-        <v>20201010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>20201010</v>
-      </c>
-      <c r="I3" s="1">
-        <v>20201010</v>
+      <c r="F3" s="6">
+        <v>200020001000100</v>
+      </c>
+      <c r="G3" s="6">
+        <v>200020001000100</v>
+      </c>
+      <c r="H3" s="6">
+        <v>200020001000100</v>
+      </c>
+      <c r="I3" s="6">
+        <v>200020001000100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -595,17 +602,17 @@
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1">
-        <v>20204010</v>
-      </c>
-      <c r="G4" s="1">
-        <v>20204010</v>
-      </c>
-      <c r="H4" s="1">
-        <v>20204010</v>
-      </c>
-      <c r="I4" s="1">
-        <v>20204010</v>
+      <c r="F4" s="6">
+        <v>200020004000100</v>
+      </c>
+      <c r="G4" s="6">
+        <v>200020004000100</v>
+      </c>
+      <c r="H4" s="6">
+        <v>200020004000100</v>
+      </c>
+      <c r="I4" s="6">
+        <v>200020004000100</v>
       </c>
     </row>
   </sheetData>
